--- a/files/bom_aksesoris.xlsx
+++ b/files/bom_aksesoris.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UPLOAD BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47FA80A-B6D8-4C46-B9F8-9EA5A01FDC1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C0664D3-EE8F-4E67-83CF-711A8366A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{50EF9E54-1E5E-4DDE-BB67-44F16E3742FA}"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="15375" windowHeight="7875" xr2:uid="{50EF9E54-1E5E-4DDE-BB67-44F16E3742FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>item_code</t>
   </si>
@@ -94,6 +95,21 @@
   </si>
   <si>
     <t>WINDOW HANDLE ALUMINIUM WHITE RIGHT YE-SP-25R (RAMBUNCIS)</t>
+  </si>
+  <si>
+    <t>satuan</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>MTR</t>
+  </si>
+  <si>
+    <t>LBR</t>
   </si>
 </sst>
 </file>
@@ -161,13 +177,16 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -486,19 +505,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BD4274-AE2D-47BD-9E76-66FCDF7D17BC}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,119 +526,152 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
     </row>
